--- a/excel/Examples_Rus/pic04_19.xlsx
+++ b/excel/Examples_Rus/pic04_19.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\Examples_Rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{956CCFDA-4E83-4FD7-ADBD-1A6199ED7043}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{9A96B3E2-448B-4105-B9B0-AB5A7F7594BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,12 +68,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="5" formatCode="#,##0&quot;р.&quot;;\-#,##0&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,15 +110,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -127,13 +126,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+      <numFmt numFmtId="9" formatCode="#,##0&quot;р.&quot;;\-#,##0&quot;р.&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -152,15 +151,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEA2E8ED-57B5-46AE-9A59-5DFCB1478CA0}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowCount="1">
-  <autoFilter ref="A1:F3" xr:uid="{522F8219-DD30-4865-ABB4-77714245536A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowCount="1">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A31D5C20-DC2D-4627-9D5D-071AD6FE49C2}" name="ID работника" totalsRowLabel="Всего" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{863D060D-B301-4679-81D2-1777EDF1C848}" name="ФИО"/>
-    <tableColumn id="3" xr3:uid="{AE7F0448-528C-4DBD-AD8C-72777715AFF7}" name="Отдел"/>
-    <tableColumn id="4" xr3:uid="{B632B974-5904-439F-8635-08C4618360BE}" name="Дата приема"/>
-    <tableColumn id="5" xr3:uid="{9E741EAA-109E-4708-AF6E-21D4091A60A2}" name="Оклад" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7BEB5DB8-99C2-4EBE-B4BB-8C53D00FFFFE}" name="Стаж (дни)" dataDxfId="2">
+    <tableColumn id="1" name="ID работника" totalsRowLabel="Всего" dataDxfId="3"/>
+    <tableColumn id="2" name="ФИО"/>
+    <tableColumn id="3" name="Отдел"/>
+    <tableColumn id="4" name="Дата приема"/>
+    <tableColumn id="5" name="Оклад" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Стаж (дни)" dataDxfId="1">
       <calculatedColumnFormula>NOW()-Table1[[#This Row],[Дата приема]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -464,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862067B-3870-4EF0-B21D-78EC3CD2021A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +518,7 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()-Table1[[#This Row],[Дата приема]]</f>
-        <v>6438.6170487268537</v>
+        <v>6899.8288447916639</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,7 +539,7 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">NOW()-Table1[[#This Row],[Дата приема]]</f>
-        <v>8016.6170487268537</v>
+        <v>8477.8288447916639</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
